--- a/pipService/data/excel/piplinedatas.xlsx
+++ b/pipService/data/excel/piplinedatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13940"/>
+    <workbookView windowWidth="30240" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="城固站" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>序号</t>
   </si>
@@ -62,6 +62,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>pipe_group</t>
+  </si>
+  <si>
     <t>汉-安输气管线</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>L360M</t>
+  </si>
+  <si>
+    <t>汉安线</t>
   </si>
   <si>
     <t>0096+2</t>
@@ -917,7 +923,7 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +979,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,12 +1472,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="16.8"/>
@@ -1482,9 +1491,10 @@
     <col min="8" max="8" width="32.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.2692307692308" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.1442307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1515,306 +1525,339 @@
       <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="19" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="46" customHeight="1" spans="1:10">
+    <row r="2" ht="46" customHeight="1" spans="1:11">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="11">
         <v>0.9</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="9"/>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" ht="46" customHeight="1" spans="1:10">
+    <row r="3" ht="46" customHeight="1" spans="1:11">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="11">
         <v>1.3</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="9"/>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" ht="46" customHeight="1" spans="1:10">
+    <row r="4" ht="46" customHeight="1" spans="1:11">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="9"/>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" ht="46" customHeight="1" spans="1:10">
+    <row r="5" ht="46" customHeight="1" spans="1:11">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="9"/>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" ht="46" customHeight="1" spans="1:10">
+    <row r="6" ht="46" customHeight="1" spans="1:11">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="9"/>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" ht="46" customHeight="1" spans="1:10">
+    <row r="7" ht="46" customHeight="1" spans="1:11">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" s="9"/>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" ht="46" customHeight="1" spans="1:10">
+    <row r="8" ht="46" customHeight="1" spans="1:11">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="11">
         <v>1.8</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="9"/>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" ht="46" customHeight="1" spans="1:10">
+    <row r="9" ht="46" customHeight="1" spans="1:11">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="11">
         <v>1.6</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" s="9"/>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="10" ht="46" customHeight="1" spans="1:10">
+    <row r="10" ht="46" customHeight="1" spans="1:11">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="11">
         <v>1.6</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" s="9"/>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" ht="46" customHeight="1" spans="1:10">
+    <row r="11" ht="46" customHeight="1" spans="1:11">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="11">
         <v>2.5</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" s="9"/>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E545" etc:filterBottomFollowUsedRange="0">
